--- a/Conversion/AutoChangeJson/datasrc/小鳄鱼数据表.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/小鳄鱼数据表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BabyCrocodile\version1.0\trunk\Conversion\AutoChangeJson\datasrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47C4F6-FAEE-4274-B396-BD4F8BF06722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159175B4-289A-4CAF-BE7F-CDE86AC8A81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="2115" windowWidth="20160" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1905" windowWidth="20160" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestTable0" sheetId="1" r:id="rId1"/>
+    <sheet name="GameType1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +56,80 @@
   </si>
   <si>
     <t>水</t>
+  </si>
+  <si>
+    <t>gameName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numberOfRooms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃豆豆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩蛇蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开车车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳绳绳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉屎屎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏</t>
+  </si>
+  <si>
+    <t>配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置</t>
+  </si>
+  <si>
+    <t>isUnlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -104,12 +179,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
@@ -484,4 +567,147 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB3BF47-306B-4EA4-9DD6-6B2444BB5A09}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>